--- a/url映射.xlsx
+++ b/url映射.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大三信管专业综合课程设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\webshopRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8CEAE0-0C8F-4EF6-B6E5-C4A41948B4F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CE03B7-C0F4-4AA4-A6B1-D9019180E690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E2DCE81D-48A0-45FF-8C12-1E94DBC77289}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>提交方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,30 +65,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/search/{text}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ajax 本页面更新搜索结果 json所需 offset 查询起始位置 limit 查询条数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/products/{productId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若没登录则跳转至登录/注册页面 登录了跳转至主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/{userName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>put</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,62 +77,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">用户自删账户时调用，需要用户名密码 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/{userName}/cart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/{userName}/star</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/{userName}/orderHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ajax 删除购物车里的商品 json提交删除商品的列表 ，后台返回更新后的购物车商品列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除历史订单 json提交需要删除的订单编号数组 后台返回更新后的历史订单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/{userName}/order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ajax 往购物车里添加单个商品 json传递产品对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ajax 收藏新商品 json传递产品对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ajax 删除收藏的商品，json传递用json包装起来的要删除的商品列表 后台返回更新后的收藏夹商品列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/{userName}/contacts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ajax 获取此用户的所有联系信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录了则跳转至历史订单页面无则跳转至登录页面，默认返回第一页0-10单的历史订单数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ajax json传递offset查询起始位置 limit 查询条数 后台返回相应历史订单列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,34 +101,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ajax json传递offset查询起始位置 limit 查询条数 后台返回相应收藏夹商品列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/logOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登出，并跳转至登录页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录了则跳转至购物车页面无则跳转至登录页面， 已登录则传递相应用户的购物车商品列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 用于个人中心中更新部分个人信息，不包括密码 ps:此条待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 用于个人中心中更新所有个人信息，包括密码 ps:此条待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ajax 注册新用户 json需要：userName用户名； password 密码；(boolean)isLogin :登录或注册；注册完留在本页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>若登录则跳转至个人中心 无则跳转登录页面,前提此userName与已登录的一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,11 +133,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/{userName}/order/buy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax 注册新用户 json需要：userName用户名； password 密码；注册完留在本页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录事件 登录成功转主页，失败重定向至登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出事件，并跳转至登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax json删除历史订单 json提交需要删除的订单编号数组 后台返回更新后的历史订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录了则跳转至历史订单详情页面无则跳转至登录页面，后台提供此订单编号的订单详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax 收藏一个商品 json传递产品对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax 传递offset查询起始位置 limit 查询条数 后台返回相应收藏夹商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userName}/orderHistory/{orderNum}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userName}/orderHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userName}/order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userName}/contacts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userName}/carts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userName}/carts/{productId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userName}/stars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userName}/stars/{productId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userName}/stars/{offset}/{limit}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userName}/carts/order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/{searchText}/{offset}/{limit}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax 本页面更新搜索结果  offset 查询起始位置 limit 查询条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户自删账户时调用，需要用户名密码 删除后跳转至登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax 新增一个地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax 删除一个地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userName}/password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于个人中心中重新设置密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于个人中心中更新基本个人信息，不包括密码，用户名 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若没登录则跳转至登录/注册页面 登录了跳转至个人中心主页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,12 +278,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -268,8 +306,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD586159-60D4-4B15-956E-AA22D95C2B21}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -614,7 +658,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -625,195 +669,195 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -821,71 +865,105 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
         <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
-        <v>33</v>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>42</v>
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>43</v>
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/url映射.xlsx
+++ b/url映射.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\webshopRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CE03B7-C0F4-4AA4-A6B1-D9019180E690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7AB666-3260-4D24-B5B0-AE85D5FCF758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E2DCE81D-48A0-45FF-8C12-1E94DBC77289}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>提交方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,29 @@
   </si>
   <si>
     <t>若没登录则跳转至登录/注册页面 登录了跳转至个人中心主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/products/{productId}/comments/{offset}/{limit}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ajax 获取此产品的评论  offset 查询起始位置 limit 查询条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个评论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +311,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,6 +343,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD586159-60D4-4B15-956E-AA22D95C2B21}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -952,12 +984,34 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>22</v>
       </c>
     </row>

--- a/url映射.xlsx
+++ b/url映射.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\webshopRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7AB666-3260-4D24-B5B0-AE85D5FCF758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB60CBB-A4ED-41DB-8DB3-03FC9BA02179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E2DCE81D-48A0-45FF-8C12-1E94DBC77289}"/>
+    <workbookView xWindow="1092" yWindow="1212" windowWidth="17280" windowHeight="9696" xr2:uid="{E2DCE81D-48A0-45FF-8C12-1E94DBC77289}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>提交方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>添加一个评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax 更新用户头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userName}/images</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +332,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -335,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +364,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD586159-60D4-4B15-956E-AA22D95C2B21}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1006,12 +1027,23 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="A32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>22</v>
       </c>
     </row>
